--- a/Data/LogSolititud.xlsx
+++ b/Data/LogSolititud.xlsx
@@ -1,71 +1,99 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
-  <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Solicitud" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
+  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <x:workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <x:bookViews>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="Solicitud" sheetId="1" r:id="rId1"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <x:si>
+    <x:t>validado</x:t>
+  </x:si>
+  <x:si>
+    <x:t>invalidado</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,15 +358,1070 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F20" sqref="F20 F20:F20"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr baseColWidth="10" defaultColWidth="13.404375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:88">
+      <x:c r="A1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CC1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE1" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CF1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI1" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ1" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:88">
+      <x:c r="A2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="I2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AI2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AJ2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AK2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AL2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AM2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AO2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AP2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AQ2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AR2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AS2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AT2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AU2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AV2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA2" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CC2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CG2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CI2" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ2" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:88">
+      <x:c r="A3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AI3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AJ3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AK3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AL3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AM3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE3" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF3" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG3" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ3" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:88">
+      <x:c r="A4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="G4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="H4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="I4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="J4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="L4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="M4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="N4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="O4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="P4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Q4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="R4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="S4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="T4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="U4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="V4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="W4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="X4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Y4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="Z4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AA4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AB4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AC4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AD4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AE4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AF4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AG4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AH4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AI4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AJ4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AK4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AL4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AM4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AN4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AO4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AP4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AQ4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AR4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AS4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AT4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AU4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AV4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AW4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AX4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AY4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="AZ4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BA4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BB4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BC4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BD4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BE4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BF4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BG4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BH4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BI4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BJ4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BK4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BL4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BM4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BN4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BO4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BP4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BQ4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BR4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="BS4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BT4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BU4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BV4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BW4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BX4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BY4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="BZ4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CA4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CB4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CC4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CD4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CE4" s="1" t="b">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CF4" s="1" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="CG4" s="1" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="CJ4" s="1" t="b">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:88"/>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>